--- a/public/uploads/parent.xlsx
+++ b/public/uploads/parent.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOD LOVE ME\gitzoid2\public\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOD LOVE ME\Desktop\Report Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA2D79D-4F89-4F89-9259-A4CF517DBB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30991B31-F93B-461B-913C-49CDB19BC18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>uid</t>
   </si>
@@ -54,9 +54,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>female</t>
-  </si>
-  <si>
     <t>num</t>
   </si>
   <si>
@@ -66,59 +63,38 @@
     <t>st lawrence</t>
   </si>
   <si>
-    <t>15/11/1994</t>
-  </si>
-  <si>
-    <t>cairns</t>
-  </si>
-  <si>
     <t>photo</t>
   </si>
   <si>
-    <t>team3.jpg</t>
-  </si>
-  <si>
-    <t>team4.jpg</t>
-  </si>
-  <si>
-    <t>WP3008</t>
-  </si>
-  <si>
-    <t>WP3009</t>
-  </si>
-  <si>
-    <t>fadzi</t>
-  </si>
-  <si>
-    <t>anne</t>
-  </si>
-  <si>
-    <t>timba</t>
-  </si>
-  <si>
-    <t>karen</t>
+    <t>studentId</t>
+  </si>
+  <si>
+    <t>SZ120</t>
+  </si>
+  <si>
+    <t>Obert</t>
+  </si>
+  <si>
+    <t>Zindi</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>propic.jpg</t>
   </si>
   <si>
     <t>blutech02@gmail.com</t>
   </si>
   <si>
-    <t>kratosmusasa94@gmail.com</t>
-  </si>
-  <si>
-    <t>studentId</t>
-  </si>
-  <si>
-    <t>SZ120</t>
-  </si>
-  <si>
-    <t>SZ124</t>
+    <t>SP3009</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +118,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -164,10 +146,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -449,15 +432,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" customWidth="1"/>
@@ -468,7 +452,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -498,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -509,86 +493,44 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>7774888</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
         <v>8</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3">
-        <v>8477004</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E4" s="2"/>
+      <c r="E3" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{CE923CF3-4BAA-48B7-AD56-C490794A99A4}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{B2928A35-DA6D-4418-8CB4-5939FB50C5FE}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>